--- a/ExcelTemplates/PinkbikeBuySellAllMountain_TitleOnly.xlsx
+++ b/ExcelTemplates/PinkbikeBuySellAllMountain_TitleOnly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
   <si>
     <t>Seller</t>
   </si>
@@ -113,13 +113,49 @@
   </si>
   <si>
     <t>content_location</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>tbody</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>padding-left: 20px</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>uPhotoSmall</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>uImage</t>
+  </si>
+  <si>
+    <t>width valign</t>
+  </si>
+  <si>
+    <t>top</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +175,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,11 +204,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -570,96 +617,337 @@
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="1"/>
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>9</v>
+      <c r="A20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="1"/>
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
